--- a/import/msw_in_region_disposal.xlsx
+++ b/import/msw_in_region_disposal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/amandeep_bhathal_gov_bc_ca/Documents/Apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19AB092-0EDA-2746-A007-A0B30626F193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA9F01A-78F2-874A-BF4C-E98EC0D43185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="860" windowWidth="27240" windowHeight="16440" xr2:uid="{AFBB352B-97F1-4B47-BECF-2B0419D74A01}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="128">
+  <si>
+    <t>"MSW In-Region Disposal: Jan 1, 2022 - Dec 31, 2022"</t>
+  </si>
   <si>
     <t>Member</t>
   </si>
@@ -1261,181 +1264,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF8375-3BDB-004A-8564-E6E1A96902AB}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2100871</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>524</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>15256</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2100871</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>5634</v>
+        <v>524</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>7267.5</v>
+        <v>15256</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2100871</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>2100877</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>12659</v>
+        <v>5634</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>180004</v>
+        <v>7267.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2100877</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>2100881</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>3132</v>
+        <v>12659</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>17595</v>
+        <v>180004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>2100881</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6">
-        <v>4533</v>
+        <v>3132</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>325</v>
+        <v>17595</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>2100881</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4533</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>4535</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
       <c r="G7">
-        <v>50</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2100881</v>
@@ -1444,21 +1424,21 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2100881</v>
@@ -1467,21 +1447,21 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>4994</v>
+        <v>4536</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>7968</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>2100881</v>
@@ -1490,21 +1470,21 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>5776</v>
+        <v>4994</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>1200</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>2100881</v>
@@ -1513,21 +1493,21 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>6313</v>
+        <v>5776</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2100881</v>
@@ -1536,21 +1516,21 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>6510</v>
+        <v>6313</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12">
-        <v>350</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2100881</v>
@@ -1559,21 +1539,21 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>6922</v>
+        <v>6510</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2100881</v>
@@ -1582,21 +1562,21 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>7200</v>
+        <v>6922</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2100881</v>
@@ -1605,21 +1585,21 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>7644</v>
+        <v>7200</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>2100881</v>
@@ -1628,21 +1608,21 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>10953</v>
+        <v>7644</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>2100881</v>
@@ -1651,21 +1631,21 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>11071</v>
+        <v>10953</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>225</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>2100881</v>
@@ -1674,21 +1654,21 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>16556</v>
+        <v>11071</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G18">
-        <v>10693</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>2100881</v>
@@ -1697,21 +1677,21 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>17920</v>
+        <v>16556</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>495</v>
+        <v>10693</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>2100881</v>
@@ -1720,44 +1700,44 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>103019</v>
+        <v>17920</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G20">
-        <v>2658</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>2100881</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="B21">
-        <v>2100891</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>4223</v>
+        <v>103019</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>1576</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>2100891</v>
@@ -1766,18 +1746,21 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>10611</v>
+        <v>4223</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>1576</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>2100891</v>
@@ -1786,58 +1769,55 @@
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>18186</v>
+        <v>10611</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>2100891</v>
       </c>
       <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" t="s">
-        <v>37</v>
+      <c r="E24">
+        <v>18186</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>2100891</v>
+      </c>
+      <c r="C25" t="s">
         <v>39</v>
       </c>
-      <c r="B25">
-        <v>2100899</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
       <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>514</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>3218</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>2100899</v>
@@ -1846,21 +1826,21 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>5479</v>
+        <v>514</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26">
-        <v>31232</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>2100899</v>
@@ -1869,21 +1849,21 @@
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>15821</v>
+        <v>5479</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>7414</v>
+        <v>31232</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>2100899</v>
@@ -1892,44 +1872,44 @@
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>17006</v>
+        <v>15821</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28">
-        <v>5331</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>2100899</v>
+      </c>
+      <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="B29">
-        <v>2100901</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>2401</v>
+        <v>17006</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29">
-        <v>2201</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>2100901</v>
@@ -1938,18 +1918,21 @@
         <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>3825</v>
+        <v>2401</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>2201</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>2100901</v>
@@ -1958,21 +1941,18 @@
         <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>4278</v>
+        <v>3825</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31">
-        <v>650</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>2100901</v>
@@ -1981,21 +1961,21 @@
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>5050</v>
+        <v>4278</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G32">
-        <v>61944</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>2100901</v>
@@ -2004,44 +1984,44 @@
         <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>7496</v>
+        <v>5050</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>493</v>
+        <v>61944</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>2100901</v>
+      </c>
+      <c r="C34" t="s">
         <v>50</v>
       </c>
-      <c r="B34">
-        <v>2100927</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>1697</v>
+        <v>7496</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G34">
-        <v>74416.7</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>2100927</v>
@@ -2050,18 +2030,21 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>6424</v>
+        <v>1697</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>74416.7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>2100927</v>
@@ -2070,21 +2053,18 @@
         <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>100206</v>
+        <v>6424</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>539</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>2100927</v>
@@ -2092,33 +2072,33 @@
       <c r="C37" t="s">
         <v>54</v>
       </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>100206</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>539</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>2100927</v>
+      </c>
+      <c r="C38" t="s">
         <v>55</v>
-      </c>
-      <c r="B38">
-        <v>2100935</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38">
-        <v>101798</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38">
-        <v>86882.58</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39">
         <v>2100935</v>
@@ -2127,21 +2107,21 @@
         <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>101804</v>
+        <v>101798</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39">
-        <v>383.44</v>
+        <v>86882.58</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>2100935</v>
@@ -2150,21 +2130,21 @@
         <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>105058</v>
+        <v>101804</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40">
-        <v>13875.49</v>
+        <v>383.44</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>2100935</v>
@@ -2173,41 +2153,41 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E41">
+        <v>105058</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>-82000</v>
+        <v>13875.49</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42">
+        <v>2100935</v>
+      </c>
+      <c r="C42" t="s">
         <v>60</v>
       </c>
-      <c r="B42">
-        <v>2100945</v>
-      </c>
-      <c r="C42" t="s">
-        <v>61</v>
-      </c>
       <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42">
-        <v>1611</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42">
-        <v>683496</v>
+        <v>-82000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <v>2100945</v>
@@ -2216,21 +2196,21 @@
         <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>107051</v>
+        <v>1611</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G43">
-        <v>233052</v>
+        <v>683496</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44">
         <v>2100945</v>
@@ -2239,41 +2219,41 @@
         <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>107051</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G44">
-        <v>185143.01</v>
+        <v>233052</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45">
+        <v>2100945</v>
+      </c>
+      <c r="C45" t="s">
         <v>64</v>
       </c>
-      <c r="B45">
-        <v>2101029</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
       <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45">
-        <v>7150</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G45">
-        <v>1860</v>
+        <v>185143.01</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46">
         <v>2101029</v>
@@ -2282,67 +2262,67 @@
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>7988</v>
+        <v>7150</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G46">
-        <v>11797</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <v>2101029</v>
+      </c>
+      <c r="C47" t="s">
         <v>67</v>
       </c>
-      <c r="B47">
-        <v>2101035</v>
-      </c>
-      <c r="C47" t="s">
-        <v>68</v>
-      </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E47">
-        <v>16960</v>
+        <v>7988</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47">
-        <v>1845.48</v>
+        <v>11797</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48">
+        <v>2101035</v>
+      </c>
+      <c r="C48" t="s">
         <v>69</v>
       </c>
-      <c r="B48">
-        <v>2101047</v>
-      </c>
-      <c r="C48" t="s">
-        <v>70</v>
-      </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E48">
-        <v>2896</v>
+        <v>16960</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G48">
-        <v>5406.9</v>
+        <v>1845.48</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>2101047</v>
@@ -2351,21 +2331,21 @@
         <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>17529</v>
+        <v>2896</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G49">
-        <v>14613.69</v>
+        <v>5406.9</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>2101047</v>
@@ -2374,44 +2354,44 @@
         <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <v>106160</v>
+        <v>17529</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G50">
-        <v>31862.27</v>
+        <v>14613.69</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>2101047</v>
+      </c>
+      <c r="C51" t="s">
         <v>73</v>
       </c>
-      <c r="B51">
-        <v>2101077</v>
-      </c>
-      <c r="C51" t="s">
-        <v>74</v>
-      </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>4612</v>
+        <v>106160</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G51">
-        <v>490</v>
+        <v>31862.27</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>2101077</v>
@@ -2420,21 +2400,21 @@
         <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>5511</v>
+        <v>4612</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G52">
-        <v>226</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53">
         <v>2101077</v>
@@ -2443,21 +2423,21 @@
         <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>15681</v>
+        <v>5511</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G53">
-        <v>5095</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>2101077</v>
@@ -2466,21 +2446,21 @@
         <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>17226</v>
+        <v>15681</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G54">
-        <v>4956</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B55">
         <v>2101077</v>
@@ -2489,21 +2469,21 @@
         <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>17227</v>
+        <v>17226</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G55">
-        <v>21287</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56">
         <v>2101077</v>
@@ -2512,18 +2492,21 @@
         <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>3608</v>
+        <v>17227</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>21287</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57">
         <v>2101077</v>
@@ -2532,18 +2515,18 @@
         <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>5425</v>
+        <v>3608</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58">
         <v>2101077</v>
@@ -2552,41 +2535,38 @@
         <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E58">
-        <v>11936</v>
+        <v>5425</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59">
+        <v>2101077</v>
+      </c>
+      <c r="C59" t="s">
         <v>82</v>
       </c>
-      <c r="B59">
-        <v>2101081</v>
-      </c>
-      <c r="C59" t="s">
-        <v>83</v>
-      </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E59">
-        <v>1917</v>
+        <v>11936</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59">
-        <v>10602</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>2101081</v>
@@ -2595,21 +2575,21 @@
         <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>15290</v>
+        <v>1917</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G60">
-        <v>6866.19</v>
+        <v>10602</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>2101081</v>
@@ -2618,44 +2598,44 @@
         <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>15294</v>
+        <v>15290</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G61">
-        <v>1062.18</v>
+        <v>6866.19</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62">
+        <v>2101081</v>
+      </c>
+      <c r="C62" t="s">
         <v>86</v>
       </c>
-      <c r="B62">
-        <v>2101099</v>
-      </c>
-      <c r="C62" t="s">
-        <v>87</v>
-      </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>7912</v>
+        <v>15294</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G62">
-        <v>20</v>
+        <v>1062.18</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63">
         <v>2101099</v>
@@ -2664,21 +2644,21 @@
         <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>8856</v>
+        <v>7912</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G63">
-        <v>15052</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>2101099</v>
@@ -2687,44 +2667,44 @@
         <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>17686</v>
+        <v>8856</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G64">
-        <v>11163</v>
+        <v>15052</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65">
+        <v>2101099</v>
+      </c>
+      <c r="C65" t="s">
         <v>90</v>
       </c>
-      <c r="B65">
-        <v>2101101</v>
-      </c>
-      <c r="C65" t="s">
-        <v>91</v>
-      </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>16521</v>
+        <v>17686</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G65">
-        <v>1677.6</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66">
         <v>2101101</v>
@@ -2733,21 +2713,21 @@
         <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>16913</v>
+        <v>16521</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G66">
-        <v>7079.3</v>
+        <v>1677.6</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67">
         <v>2101101</v>
@@ -2756,67 +2736,67 @@
         <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>17126</v>
+        <v>16913</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G67">
-        <v>21163.200000000001</v>
+        <v>7079.3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68">
+        <v>2101101</v>
+      </c>
+      <c r="C68" t="s">
         <v>94</v>
       </c>
-      <c r="B68">
-        <v>2101105</v>
-      </c>
-      <c r="C68" t="s">
-        <v>95</v>
-      </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>12218</v>
+        <v>17126</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G68">
-        <v>146833</v>
+        <v>21163.200000000001</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69">
+        <v>2101105</v>
+      </c>
+      <c r="C69" t="s">
         <v>96</v>
       </c>
-      <c r="B69">
-        <v>2101119</v>
-      </c>
-      <c r="C69" t="s">
-        <v>97</v>
-      </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E69">
-        <v>15962</v>
+        <v>12218</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G69">
-        <v>35267.75</v>
+        <v>146833</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B70">
         <v>2101119</v>
@@ -2825,21 +2805,21 @@
         <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>100134</v>
+        <v>15962</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G70">
-        <v>13363.72</v>
+        <v>35267.75</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B71">
         <v>2101119</v>
@@ -2848,90 +2828,90 @@
         <v>99</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>107745</v>
+        <v>100134</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G71">
-        <v>1394.36</v>
+        <v>13363.72</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72">
+        <v>2101119</v>
+      </c>
+      <c r="C72" t="s">
         <v>100</v>
       </c>
-      <c r="B72">
-        <v>2101123</v>
-      </c>
-      <c r="C72" t="s">
-        <v>101</v>
-      </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>8490</v>
+        <v>107745</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G72">
-        <v>7762</v>
+        <v>1394.36</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73">
+        <v>2101123</v>
+      </c>
+      <c r="C73" t="s">
         <v>102</v>
       </c>
-      <c r="B73">
-        <v>2101127</v>
-      </c>
-      <c r="C73" t="s">
-        <v>103</v>
-      </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73">
-        <v>1714</v>
+        <v>8490</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G73">
-        <v>75553</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74">
+        <v>2101127</v>
+      </c>
+      <c r="C74" t="s">
         <v>104</v>
       </c>
-      <c r="B74">
-        <v>2101139</v>
-      </c>
-      <c r="C74" t="s">
-        <v>105</v>
-      </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>15282</v>
+        <v>1714</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G74">
-        <v>2364</v>
+        <v>75553</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75">
         <v>2101139</v>
@@ -2940,21 +2920,21 @@
         <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>15284</v>
+        <v>15282</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G75">
-        <v>14189</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76">
         <v>2101139</v>
@@ -2963,38 +2943,44 @@
         <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>15286</v>
+        <v>15284</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G76">
-        <v>29595</v>
+        <v>14189</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77">
+        <v>2101139</v>
+      </c>
+      <c r="C77" t="s">
         <v>108</v>
       </c>
-      <c r="B77">
-        <v>2101141</v>
-      </c>
-      <c r="C77" t="s">
-        <v>109</v>
+      <c r="D77" t="s">
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>15273</v>
+        <v>15286</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
       </c>
       <c r="G77">
-        <v>4045</v>
+        <v>29595</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78">
         <v>2101141</v>
@@ -3002,22 +2988,16 @@
       <c r="C78" t="s">
         <v>110</v>
       </c>
-      <c r="D78" t="s">
-        <v>9</v>
-      </c>
       <c r="E78">
-        <v>15274</v>
-      </c>
-      <c r="F78" t="s">
-        <v>10</v>
+        <v>15273</v>
       </c>
       <c r="G78">
-        <v>27061</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79">
         <v>2101141</v>
@@ -3025,16 +3005,22 @@
       <c r="C79" t="s">
         <v>111</v>
       </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
       <c r="E79">
-        <v>15275</v>
+        <v>15274</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
       </c>
       <c r="G79">
-        <v>5581</v>
+        <v>27061</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80">
         <v>2101141</v>
@@ -3043,15 +3029,15 @@
         <v>112</v>
       </c>
       <c r="E80">
-        <v>15276</v>
+        <v>15275</v>
       </c>
       <c r="G80">
-        <v>4271</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B81">
         <v>2101141</v>
@@ -3059,22 +3045,16 @@
       <c r="C81" t="s">
         <v>113</v>
       </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
       <c r="E81">
-        <v>15279</v>
-      </c>
-      <c r="F81" t="s">
-        <v>10</v>
+        <v>15276</v>
       </c>
       <c r="G81">
-        <v>3987</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B82">
         <v>2101141</v>
@@ -3083,44 +3063,44 @@
         <v>114</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <v>15280</v>
+        <v>15279</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G82">
-        <v>7982</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83">
+        <v>2101141</v>
+      </c>
+      <c r="C83" t="s">
         <v>115</v>
       </c>
-      <c r="B83">
-        <v>2101145</v>
-      </c>
-      <c r="C83" t="s">
-        <v>116</v>
-      </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>5042</v>
+        <v>15280</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G83">
-        <v>2893</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84">
         <v>2101145</v>
@@ -3129,67 +3109,67 @@
         <v>117</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E84">
-        <v>106063</v>
+        <v>5042</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G84">
-        <v>11940</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85">
+        <v>2101145</v>
+      </c>
+      <c r="C85" t="s">
         <v>118</v>
       </c>
-      <c r="B85">
-        <v>2101147</v>
-      </c>
-      <c r="C85" t="s">
-        <v>119</v>
-      </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E85">
-        <v>106060</v>
+        <v>106063</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G85">
-        <v>12239</v>
+        <v>11940</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86">
+        <v>2101147</v>
+      </c>
+      <c r="C86" t="s">
         <v>120</v>
       </c>
-      <c r="B86">
-        <v>2101149</v>
-      </c>
-      <c r="C86" t="s">
-        <v>121</v>
-      </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E86">
-        <v>3328</v>
+        <v>106060</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G86">
-        <v>61762</v>
+        <v>12239</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B87">
         <v>2101149</v>
@@ -3198,21 +3178,21 @@
         <v>122</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E87">
-        <v>3447</v>
+        <v>3328</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G87">
-        <v>6661</v>
+        <v>61762</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B88">
         <v>2101149</v>
@@ -3221,21 +3201,21 @@
         <v>123</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>4465</v>
+        <v>3447</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G88">
-        <v>13245</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B89">
         <v>2101149</v>
@@ -3244,21 +3224,21 @@
         <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E89">
-        <v>4778</v>
+        <v>4465</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G89">
-        <v>2800</v>
+        <v>13245</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90">
         <v>2101149</v>
@@ -3267,21 +3247,21 @@
         <v>125</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E90">
-        <v>5910</v>
+        <v>4778</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G90">
-        <v>10703</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B91">
         <v>2101149</v>
@@ -3290,20 +3270,43 @@
         <v>126</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E91">
+        <v>5910</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91">
+        <v>10703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92">
+        <v>2101149</v>
+      </c>
+      <c r="C92" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92">
         <v>107189</v>
       </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91">
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92">
         <v>2884</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G92">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G93">
         <v>2232849.36</v>
       </c>
     </row>

--- a/import/msw_in_region_disposal.xlsx
+++ b/import/msw_in_region_disposal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/amandeep_bhathal_gov_bc_ca/Documents/Apps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA9F01A-78F2-874A-BF4C-E98EC0D43185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27D5A75-ECF9-834B-A9AD-8B4654D7B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="860" windowWidth="27240" windowHeight="16440" xr2:uid="{AFBB352B-97F1-4B47-BECF-2B0419D74A01}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="128">
-  <si>
-    <t>"MSW In-Region Disposal: Jan 1, 2022 - Dec 31, 2022"</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="127">
   <si>
     <t>Member</t>
   </si>
@@ -31,21 +28,9 @@
     <t>Response ID</t>
   </si>
   <si>
-    <t>In-Region - Name of Disposal Facility:</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>Authorization Number</t>
-  </si>
-  <si>
-    <t>In-Region - Scale:</t>
-  </si>
-  <si>
-    <t>In-Region - Quantity (Tonnes):</t>
-  </si>
-  <si>
     <t>Alberni-Clayoquot Regional District</t>
   </si>
   <si>
@@ -404,6 +389,18 @@
   </si>
   <si>
     <t>Campbell Hill Landfill</t>
+  </si>
+  <si>
+    <t>InRegionDisposalFacility</t>
+  </si>
+  <si>
+    <t>AuthorizationNumber</t>
+  </si>
+  <si>
+    <t>InRegionScale:</t>
+  </si>
+  <si>
+    <t>InRegionQuantity</t>
   </si>
 </sst>
 </file>
@@ -1264,61 +1261,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF8375-3BDB-004A-8564-E6E1A96902AB}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="7" width="19.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2100871</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>524</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
+      <c r="G2">
+        <v>15256</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2100871</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>524</v>
+        <v>5634</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>15256</v>
+        <v>7267.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1326,562 +1350,562 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2100871</v>
+        <v>2100877</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>5634</v>
+        <v>12659</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>7267.5</v>
+        <v>180004</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>2100877</v>
+        <v>2100881</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>12659</v>
+        <v>3132</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>180004</v>
+        <v>17595</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2100881</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>3132</v>
+        <v>4533</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>17595</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2100881</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>4533</v>
+        <v>4535</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>325</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>2100881</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2100881</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>4536</v>
+        <v>4994</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>2100881</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>4994</v>
+        <v>5776</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>7968</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2100881</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>5776</v>
+        <v>6313</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>1200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2100881</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>6313</v>
+        <v>6510</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2100881</v>
       </c>
       <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>6922</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
         <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>6510</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13">
-        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>2100881</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>6922</v>
+        <v>7200</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2100881</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>7200</v>
+        <v>7644</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>2100881</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>7644</v>
+        <v>10953</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>2100881</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>10953</v>
+        <v>11071</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G17">
-        <v>115</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>2100881</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>11071</v>
+        <v>16556</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>225</v>
+        <v>10693</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>2100881</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>16556</v>
+        <v>17920</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>10693</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>2100881</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>17920</v>
+        <v>103019</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>495</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>2100881</v>
+        <v>2100891</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>103019</v>
+        <v>4223</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G21">
-        <v>2658</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>2100891</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>4223</v>
+        <v>10611</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22">
-        <v>1576</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2100891</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E23">
-        <v>10611</v>
+        <v>18186</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>2100891</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24">
-        <v>18186</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>2100891</v>
+        <v>2100899</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>514</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>3218</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>2100899</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>514</v>
+        <v>5479</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>3218</v>
+        <v>31232</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>2100899</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>5479</v>
+        <v>15821</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>31232</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>2100899</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>15821</v>
+        <v>17006</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>7414</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1889,200 +1913,188 @@
         <v>40</v>
       </c>
       <c r="B29">
-        <v>2100899</v>
+        <v>2100901</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>17006</v>
+        <v>2401</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>5331</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>2100901</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>2401</v>
+        <v>3825</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30">
-        <v>2201</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>2100901</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>3825</v>
+        <v>4278</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>2100901</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>4278</v>
+        <v>5050</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G32">
-        <v>650</v>
+        <v>61944</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>2100901</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>5050</v>
+        <v>7496</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G33">
-        <v>61944</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34">
-        <v>2100901</v>
+        <v>2100927</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>7496</v>
+        <v>1697</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>493</v>
+        <v>74416.7</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>2100927</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>1697</v>
+        <v>6424</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35">
-        <v>74416.7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>2100927</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>6424</v>
+        <v>100206</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>2100927</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>100206</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37">
-        <v>539</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2090,79 +2102,88 @@
         <v>51</v>
       </c>
       <c r="B38">
-        <v>2100927</v>
+        <v>2100935</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>101798</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>86882.58</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>2100935</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>101798</v>
+        <v>101804</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>86882.58</v>
+        <v>383.44</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>2100935</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>101804</v>
+        <v>105058</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G40">
-        <v>383.44</v>
+        <v>13875.49</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>2100935</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41">
-        <v>105058</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>13875.49</v>
+        <v>-82000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2170,1143 +2191,1123 @@
         <v>56</v>
       </c>
       <c r="B42">
-        <v>2100935</v>
+        <v>2100945</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>1611</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G42">
-        <v>-82000</v>
+        <v>683496</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>2100945</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>1611</v>
+        <v>107051</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>683496</v>
+        <v>233052</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>2100945</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44">
-        <v>107051</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G44">
-        <v>233052</v>
+        <v>185143.01</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>2101029</v>
+      </c>
+      <c r="C45" t="s">
         <v>61</v>
       </c>
-      <c r="B45">
-        <v>2100945</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
-      </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>7150</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G45">
-        <v>185143.01</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B46">
         <v>2101029</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>7150</v>
+        <v>7988</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G46">
-        <v>1860</v>
+        <v>11797</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47">
-        <v>2101029</v>
+        <v>2101035</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E47">
-        <v>7988</v>
+        <v>16960</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G47">
-        <v>11797</v>
+        <v>1845.48</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B48">
-        <v>2101035</v>
+        <v>2101047</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>16960</v>
+        <v>2896</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>1845.48</v>
+        <v>5406.9</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>2101047</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>2896</v>
+        <v>17529</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>5406.9</v>
+        <v>14613.69</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B50">
         <v>2101047</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>17529</v>
+        <v>106160</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G50">
-        <v>14613.69</v>
+        <v>31862.27</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>2101077</v>
+      </c>
+      <c r="C51" t="s">
         <v>70</v>
       </c>
-      <c r="B51">
-        <v>2101047</v>
-      </c>
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>106160</v>
+        <v>4612</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>31862.27</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B52">
         <v>2101077</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>4612</v>
+        <v>5511</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G52">
-        <v>490</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B53">
         <v>2101077</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <v>5511</v>
+        <v>15681</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G53">
-        <v>226</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B54">
         <v>2101077</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>15681</v>
+        <v>17226</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G54">
-        <v>5095</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B55">
         <v>2101077</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>17226</v>
+        <v>17227</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G55">
-        <v>4956</v>
+        <v>21287</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>2101077</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>17227</v>
+        <v>3608</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56">
-        <v>21287</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>2101077</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E57">
-        <v>3608</v>
+        <v>5425</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B58">
         <v>2101077</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E58">
-        <v>5425</v>
+        <v>11936</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B59">
-        <v>2101077</v>
+        <v>2101081</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>11936</v>
+        <v>1917</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>10602</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B60">
         <v>2101081</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>1917</v>
+        <v>15290</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>10602</v>
+        <v>6866.19</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B61">
         <v>2101081</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>15290</v>
+        <v>15294</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G61">
-        <v>6866.19</v>
+        <v>1062.18</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62">
+        <v>2101099</v>
+      </c>
+      <c r="C62" t="s">
         <v>83</v>
       </c>
-      <c r="B62">
-        <v>2101081</v>
-      </c>
-      <c r="C62" t="s">
-        <v>86</v>
-      </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>15294</v>
+        <v>7912</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G62">
-        <v>1062.18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B63">
         <v>2101099</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>7912</v>
+        <v>8856</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G63">
-        <v>20</v>
+        <v>15052</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B64">
         <v>2101099</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>8856</v>
+        <v>17686</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G64">
-        <v>15052</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65">
+        <v>2101101</v>
+      </c>
+      <c r="C65" t="s">
         <v>87</v>
       </c>
-      <c r="B65">
-        <v>2101099</v>
-      </c>
-      <c r="C65" t="s">
-        <v>90</v>
-      </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>17686</v>
+        <v>16521</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G65">
-        <v>11163</v>
+        <v>1677.6</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>2101101</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>16521</v>
+        <v>16913</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G66">
-        <v>1677.6</v>
+        <v>7079.3</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B67">
         <v>2101101</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>16913</v>
+        <v>17126</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G67">
-        <v>7079.3</v>
+        <v>21163.200000000001</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68">
+        <v>2101105</v>
+      </c>
+      <c r="C68" t="s">
         <v>91</v>
       </c>
-      <c r="B68">
-        <v>2101101</v>
-      </c>
-      <c r="C68" t="s">
-        <v>94</v>
-      </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E68">
-        <v>17126</v>
+        <v>12218</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>21163.200000000001</v>
+        <v>146833</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B69">
-        <v>2101105</v>
+        <v>2101119</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>12218</v>
+        <v>15962</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G69">
-        <v>146833</v>
+        <v>35267.75</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>2101119</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>15962</v>
+        <v>100134</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G70">
-        <v>35267.75</v>
+        <v>13363.72</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B71">
         <v>2101119</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>100134</v>
+        <v>107745</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G71">
-        <v>13363.72</v>
+        <v>1394.36</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72">
+        <v>2101123</v>
+      </c>
+      <c r="C72" t="s">
         <v>97</v>
       </c>
-      <c r="B72">
-        <v>2101119</v>
-      </c>
-      <c r="C72" t="s">
-        <v>100</v>
-      </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>107745</v>
+        <v>8490</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>1394.36</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B73">
-        <v>2101123</v>
+        <v>2101127</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>8490</v>
+        <v>1714</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G73">
-        <v>7762</v>
+        <v>75553</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B74">
-        <v>2101127</v>
+        <v>2101139</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>1714</v>
+        <v>15282</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G74">
-        <v>75553</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B75">
         <v>2101139</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>15282</v>
+        <v>15284</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G75">
-        <v>2364</v>
+        <v>14189</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B76">
         <v>2101139</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>15284</v>
+        <v>15286</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G76">
-        <v>14189</v>
+        <v>29595</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <v>2101141</v>
+      </c>
+      <c r="C77" t="s">
         <v>105</v>
       </c>
-      <c r="B77">
-        <v>2101139</v>
-      </c>
-      <c r="C77" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
       <c r="E77">
-        <v>15286</v>
-      </c>
-      <c r="F77" t="s">
-        <v>11</v>
+        <v>15273</v>
       </c>
       <c r="G77">
-        <v>29595</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B78">
         <v>2101141</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
       </c>
       <c r="E78">
-        <v>15273</v>
+        <v>15274</v>
+      </c>
+      <c r="F78" t="s">
+        <v>6</v>
       </c>
       <c r="G78">
-        <v>4045</v>
+        <v>27061</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B79">
         <v>2101141</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E79">
-        <v>15274</v>
-      </c>
-      <c r="F79" t="s">
-        <v>11</v>
+        <v>15275</v>
       </c>
       <c r="G79">
-        <v>27061</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B80">
         <v>2101141</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E80">
-        <v>15275</v>
+        <v>15276</v>
       </c>
       <c r="G80">
-        <v>5581</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B81">
         <v>2101141</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
       </c>
       <c r="E81">
-        <v>15276</v>
+        <v>15279</v>
+      </c>
+      <c r="F81" t="s">
+        <v>6</v>
       </c>
       <c r="G81">
-        <v>4271</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>2101141</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>15279</v>
+        <v>15280</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G82">
-        <v>3987</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83">
-        <v>2101141</v>
+        <v>2101145</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <v>15280</v>
+        <v>5042</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G83">
-        <v>7982</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B84">
         <v>2101145</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E84">
-        <v>5042</v>
+        <v>106063</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G84">
-        <v>2893</v>
+        <v>11940</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B85">
-        <v>2101145</v>
+        <v>2101147</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>106063</v>
+        <v>106060</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G85">
-        <v>11940</v>
+        <v>12239</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B86">
-        <v>2101147</v>
+        <v>2101149</v>
       </c>
       <c r="C86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E86">
-        <v>106060</v>
+        <v>3328</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G86">
-        <v>12239</v>
+        <v>61762</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B87">
         <v>2101149</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>3328</v>
+        <v>3447</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G87">
-        <v>61762</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B88">
         <v>2101149</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>3447</v>
+        <v>4465</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G88">
-        <v>6661</v>
+        <v>13245</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B89">
         <v>2101149</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>4465</v>
+        <v>4778</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G89">
-        <v>13245</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B90">
         <v>2101149</v>
       </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>4778</v>
+        <v>5910</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G90">
-        <v>2800</v>
+        <v>10703</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B91">
         <v>2101149</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E91">
-        <v>5910</v>
+        <v>107189</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G91">
-        <v>10703</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92">
-        <v>2101149</v>
-      </c>
-      <c r="C92" t="s">
-        <v>127</v>
-      </c>
-      <c r="D92" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92">
-        <v>107189</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
       <c r="G92">
-        <v>2884</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G93">
         <v>2232849.36</v>
       </c>
     </row>

--- a/import/msw_in_region_disposal.xlsx
+++ b/import/msw_in_region_disposal.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Documents/BCWC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27D5A75-ECF9-834B-A9AD-8B4654D7B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268E2C8F-10C0-D84E-BD5E-5641DB67C6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="860" windowWidth="27240" windowHeight="16440" xr2:uid="{AFBB352B-97F1-4B47-BECF-2B0419D74A01}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="19640" xr2:uid="{AFBB352B-97F1-4B47-BECF-2B0419D74A01}"/>
   </bookViews>
   <sheets>
     <sheet name="msw_in_region_disposal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">msw_in_region_disposal!$A$1:$A$92</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="162">
   <si>
     <t>Member</t>
   </si>
@@ -31,9 +47,6 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Alberni-Clayoquot Regional District</t>
-  </si>
-  <si>
     <t>Alberni Valley Landfill</t>
   </si>
   <si>
@@ -46,15 +59,9 @@
     <t>West Coast Landfill</t>
   </si>
   <si>
-    <t>Capital Regional District</t>
-  </si>
-  <si>
     <t>Hartland Landfill</t>
   </si>
   <si>
-    <t>Cariboo Regional District</t>
-  </si>
-  <si>
     <t>Quesnel Landfill</t>
   </si>
   <si>
@@ -109,9 +116,6 @@
     <t>Central Cariboo Transfer Station - DLC landfill (Williams Lake)</t>
   </si>
   <si>
-    <t>Central Coast Regional District</t>
-  </si>
-  <si>
     <t>Thorsen Creek Landfill</t>
   </si>
   <si>
@@ -127,9 +131,6 @@
     <t>Wuikinuxv Landfill</t>
   </si>
   <si>
-    <t>Columbia Shuswap Regional District</t>
-  </si>
-  <si>
     <t>Sicamous Landfill</t>
   </si>
   <si>
@@ -142,9 +143,6 @@
     <t>Golden Landfill</t>
   </si>
   <si>
-    <t>Comox Valley Regional District (Strathcona)</t>
-  </si>
-  <si>
     <t>Campbell River Waste Management Centre</t>
   </si>
   <si>
@@ -160,9 +158,6 @@
     <t>Zeballos Landfill</t>
   </si>
   <si>
-    <t>Fraser Fort George Regional District</t>
-  </si>
-  <si>
     <t>Foothills</t>
   </si>
   <si>
@@ -175,9 +170,6 @@
     <t>aggregate</t>
   </si>
   <si>
-    <t>Fraser Valley Regional District</t>
-  </si>
-  <si>
     <t>Bailey Landfill</t>
   </si>
   <si>
@@ -202,24 +194,15 @@
     <t>Private landfills (C&amp;D)</t>
   </si>
   <si>
-    <t>North Coast Regional District</t>
-  </si>
-  <si>
     <t>Island solid Waste Management</t>
   </si>
   <si>
     <t>Prince Rupert landfill</t>
   </si>
   <si>
-    <t>Northern Rockies Regional Municipality</t>
-  </si>
-  <si>
     <t>Northern Rockies Regional Municipality Landfill</t>
   </si>
   <si>
-    <t>Peace River Regional District</t>
-  </si>
-  <si>
     <t>Chetwynd Landfill</t>
   </si>
   <si>
@@ -229,9 +212,6 @@
     <t>North Peace Regional (formerly Fort St John) Landfill</t>
   </si>
   <si>
-    <t>Regional District Kitimat Stikine</t>
-  </si>
-  <si>
     <t>Iskut Landfill</t>
   </si>
   <si>
@@ -256,9 +236,6 @@
     <t>New Aiyansh Landfill</t>
   </si>
   <si>
-    <t>Regional District Kootenay Boundary</t>
-  </si>
-  <si>
     <t>McKelvey Creek Landfill</t>
   </si>
   <si>
@@ -268,9 +245,6 @@
     <t>West Boundary Landfill</t>
   </si>
   <si>
-    <t>Regional District of Bulkley-Nechako</t>
-  </si>
-  <si>
     <t>Manson Creek Landfill</t>
   </si>
   <si>
@@ -280,9 +254,6 @@
     <t>Clearview Sub-Regional Landfill</t>
   </si>
   <si>
-    <t>Regional District of Central Kootenay</t>
-  </si>
-  <si>
     <t>Nakusp Landfill</t>
   </si>
   <si>
@@ -292,15 +263,9 @@
     <t>Ootischenia Landfill</t>
   </si>
   <si>
-    <t>Regional District of Central Okanagan</t>
-  </si>
-  <si>
     <t>Glenmore Landfill</t>
   </si>
   <si>
-    <t>Regional District of East Kootenay</t>
-  </si>
-  <si>
     <t>Central Subregion Landfill</t>
   </si>
   <si>
@@ -310,21 +275,12 @@
     <t>Sparwood Landfill</t>
   </si>
   <si>
-    <t>Regional District of Mount Waddington</t>
-  </si>
-  <si>
     <t>7 Mile Landfill and Recycling Center</t>
   </si>
   <si>
-    <t>Regional District of Nanaimo</t>
-  </si>
-  <si>
     <t>Regional Landfill</t>
   </si>
   <si>
-    <t>Regional District of North Okanagan</t>
-  </si>
-  <si>
     <t>Lumby DDF</t>
   </si>
   <si>
@@ -334,9 +290,6 @@
     <t>Greater Vernon DDF</t>
   </si>
   <si>
-    <t>Regional District Okanagan-Similkameen</t>
-  </si>
-  <si>
     <t>Osoyoos Landfill</t>
   </si>
   <si>
@@ -355,24 +308,15 @@
     <t>Oliver Landfill</t>
   </si>
   <si>
-    <t>Squamish-Lillooet Regional District</t>
-  </si>
-  <si>
     <t>Lillooet Landfill</t>
   </si>
   <si>
     <t>Squamish Landfill</t>
   </si>
   <si>
-    <t>Sunshine Coast Regional District</t>
-  </si>
-  <si>
     <t>Sechelt Landfill</t>
   </si>
   <si>
-    <t>Thompson Nicola Regional District</t>
-  </si>
-  <si>
     <t>Mission Flats Landfill</t>
   </si>
   <si>
@@ -397,17 +341,194 @@
     <t>AuthorizationNumber</t>
   </si>
   <si>
-    <t>InRegionScale:</t>
-  </si>
-  <si>
     <t>InRegionQuantity</t>
+  </si>
+  <si>
+    <t>InRegionScale</t>
+  </si>
+  <si>
+    <t>SGC</t>
+  </si>
+  <si>
+    <t>26000</t>
+  </si>
+  <si>
+    <t>Alberni-Clayoquot</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>23000</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>Central Coast</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>Columbia Shuswap</t>
+  </si>
+  <si>
+    <t>39000</t>
+  </si>
+  <si>
+    <t>39001</t>
+  </si>
+  <si>
+    <t>39002</t>
+  </si>
+  <si>
+    <t>39003</t>
+  </si>
+  <si>
+    <t>53000</t>
+  </si>
+  <si>
+    <t>Fraser Valley</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>North Coast</t>
+  </si>
+  <si>
+    <t>47000</t>
+  </si>
+  <si>
+    <t>59000</t>
+  </si>
+  <si>
+    <t>Peace River</t>
+  </si>
+  <si>
+    <t>55000</t>
+  </si>
+  <si>
+    <t>Kitimat Stikine</t>
+  </si>
+  <si>
+    <t>49000</t>
+  </si>
+  <si>
+    <t>Kootenay Boundary</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>Bulkley-Nechako</t>
+  </si>
+  <si>
+    <t>51000</t>
+  </si>
+  <si>
+    <t>Central Kootenay</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>Central Okanagan</t>
+  </si>
+  <si>
+    <t>East Kootenay</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>43000</t>
+  </si>
+  <si>
+    <t>Mount Waddington</t>
+  </si>
+  <si>
+    <t>Nanaimo</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>North Okanagan</t>
+  </si>
+  <si>
+    <t>37000</t>
+  </si>
+  <si>
+    <t>Okanagan-Similkameen</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>Squamish-Lillooet</t>
+  </si>
+  <si>
+    <t>31000</t>
+  </si>
+  <si>
+    <t>Sunshine Coast</t>
+  </si>
+  <si>
+    <t>29000</t>
+  </si>
+  <si>
+    <t>Thompson Nicola</t>
+  </si>
+  <si>
+    <t>33000</t>
+  </si>
+  <si>
+    <t>Cariboo</t>
+  </si>
+  <si>
+    <t>41000</t>
+  </si>
+  <si>
+    <t>Fraser-Fort George</t>
+  </si>
+  <si>
+    <t>Northern Rockies</t>
+  </si>
+  <si>
+    <t>Comox Valley</t>
+  </si>
+  <si>
+    <t>Cowichan Valley</t>
+  </si>
+  <si>
+    <t>Stikine</t>
+  </si>
+  <si>
+    <t>Qathet</t>
+  </si>
+  <si>
+    <t>27000</t>
+  </si>
+  <si>
+    <t>57000</t>
+  </si>
+  <si>
+    <t>19000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -538,6 +659,19 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -884,8 +1018,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1261,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF8375-3BDB-004A-8564-E6E1A96902AB}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,7 +1414,7 @@
     <col min="6" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1284,2034 +1422,2332 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>2100871</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>524</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>15256</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>2100871</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>5634</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>7267.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="B4">
+        <v>2101099</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>7912</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5">
+        <v>2101099</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>8856</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>15052</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6">
+        <v>2101099</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>17686</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>11163</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
         <v>2100877</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>12659</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
         <v>180004</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>2100881</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>3132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>17595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>2100881</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>4533</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2100881</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>4535</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B8">
         <v>2100881</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>4536</v>
+        <v>3132</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17595</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B9">
         <v>2100881</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>4994</v>
+        <v>4533</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>7968</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B10">
         <v>2100881</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>5776</v>
+        <v>4535</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B11">
         <v>2100881</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>6313</v>
+        <v>4536</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B12">
         <v>2100881</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>6510</v>
+        <v>4994</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7968</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B13">
         <v>2100881</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>6922</v>
+        <v>5776</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <v>2100881</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>7200</v>
+        <v>6313</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B15">
         <v>2100881</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>7644</v>
+        <v>6510</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B16">
         <v>2100881</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>10953</v>
+        <v>6922</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B17">
         <v>2100881</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>11071</v>
+        <v>7200</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B18">
         <v>2100881</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>16556</v>
+        <v>7644</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>10693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B19">
         <v>2100881</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>17920</v>
+        <v>10953</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>2100881</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20">
+        <v>11071</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>225</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21">
+        <v>2100881</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>16556</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>10693</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22">
+        <v>2100881</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>17920</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>495</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23">
+        <v>2100881</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23">
         <v>103019</v>
       </c>
-      <c r="F20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20">
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23">
         <v>2658</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>2100891</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>4223</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>2100891</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>10611</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>2100891</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23">
-        <v>18186</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B24">
         <v>2100891</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4223</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>1576</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25">
+        <v>2100891</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>10611</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26">
+        <v>2100891</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>18186</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27">
+        <v>2100891</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28">
+        <v>2101101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>16521</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>1677.6</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29">
+        <v>2101101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>16913</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>7079.3</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30">
+        <v>2101101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>17126</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>21163.200000000001</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31">
+        <v>2101105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>12218</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>146833</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32">
+        <v>2100899</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>514</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>3218</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33">
+        <v>2100899</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>5479</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>31232</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>2100899</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>15821</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>7414</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35">
+        <v>2100899</v>
+      </c>
+      <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>17006</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>5331</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36">
+        <v>2100901</v>
+      </c>
+      <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="B25">
-        <v>2100899</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>2401</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>2201</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37">
+        <v>2100901</v>
+      </c>
+      <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>514</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26">
-        <v>2100899</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>3825</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38">
+        <v>2100901</v>
+      </c>
+      <c r="C38" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>5479</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26">
-        <v>31232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27">
-        <v>2100899</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>4278</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>650</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39">
+        <v>2100901</v>
+      </c>
+      <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>15821</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27">
-        <v>7414</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>2100899</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>5050</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>61944</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40">
+        <v>2100901</v>
+      </c>
+      <c r="C40" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>17006</v>
-      </c>
-      <c r="F28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28">
-        <v>5331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>7496</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>493</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41">
+        <v>2101119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>15962</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>35267.75</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42">
+        <v>2101119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>100134</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>13363.72</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43">
+        <v>2101119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>107745</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>1394.36</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44">
+        <v>2100927</v>
+      </c>
+      <c r="C44" t="s">
         <v>40</v>
       </c>
-      <c r="B29">
-        <v>2100901</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>1697</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>74416.7</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45">
+        <v>2100927</v>
+      </c>
+      <c r="C45" t="s">
         <v>41</v>
       </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>2401</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30">
-        <v>2100901</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>6424</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46">
+        <v>2100927</v>
+      </c>
+      <c r="C46" t="s">
         <v>42</v>
       </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>3825</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31">
-        <v>2100901</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>100206</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>539</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47">
+        <v>2100927</v>
+      </c>
+      <c r="C47" t="s">
         <v>43</v>
       </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>4278</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>2100901</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="H47" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48">
+        <v>2100935</v>
+      </c>
+      <c r="C48" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <v>5050</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32">
-        <v>61944</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>2100901</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>101798</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>86882.58</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49">
+        <v>2100935</v>
+      </c>
+      <c r="C49" t="s">
         <v>45</v>
       </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <v>7496</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>101804</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>383.44</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50">
+        <v>2100935</v>
+      </c>
+      <c r="C50" t="s">
         <v>46</v>
       </c>
-      <c r="B34">
-        <v>2100927</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>105058</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>13875.49</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51">
+        <v>2100935</v>
+      </c>
+      <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <v>1697</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34">
-        <v>74416.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35">
-        <v>2100927</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>6424</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36">
-        <v>2100927</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36">
-        <v>100206</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
-        <v>2100927</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38">
-        <v>2100935</v>
-      </c>
-      <c r="C38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38">
-        <v>101798</v>
-      </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38">
-        <v>86882.58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39">
-        <v>2100935</v>
-      </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>101804</v>
-      </c>
-      <c r="F39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39">
-        <v>383.44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40">
-        <v>2100935</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>105058</v>
-      </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40">
-        <v>13875.49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41">
-        <v>2100935</v>
-      </c>
-      <c r="C41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41">
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51">
         <v>-82000</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42">
-        <v>2100945</v>
-      </c>
-      <c r="C42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42">
-        <v>1611</v>
-      </c>
-      <c r="F42" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42">
-        <v>683496</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43">
-        <v>2100945</v>
-      </c>
-      <c r="C43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>107051</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43">
-        <v>233052</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44">
-        <v>2100945</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44">
-        <v>185143.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45">
-        <v>2101029</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45">
-        <v>7150</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46">
-        <v>2101029</v>
-      </c>
-      <c r="C46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46">
-        <v>7988</v>
-      </c>
-      <c r="F46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46">
-        <v>11797</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47">
-        <v>2101035</v>
-      </c>
-      <c r="C47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47">
-        <v>16960</v>
-      </c>
-      <c r="F47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47">
-        <v>1845.48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48">
-        <v>2101047</v>
-      </c>
-      <c r="C48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48">
-        <v>2896</v>
-      </c>
-      <c r="F48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48">
-        <v>5406.9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49">
-        <v>2101047</v>
-      </c>
-      <c r="C49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49">
-        <v>17529</v>
-      </c>
-      <c r="F49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49">
-        <v>14613.69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50">
-        <v>2101047</v>
-      </c>
-      <c r="C50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50">
-        <v>106160</v>
-      </c>
-      <c r="F50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50">
-        <v>31862.27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51">
-        <v>2101077</v>
-      </c>
-      <c r="C51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>4612</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B52">
         <v>2101077</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>5511</v>
+        <v>4612</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G52">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B53">
         <v>2101077</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>15681</v>
+        <v>5511</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G53">
-        <v>5095</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B54">
         <v>2101077</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>17226</v>
+        <v>15681</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G54">
-        <v>4956</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5095</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B55">
         <v>2101077</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>17227</v>
+        <v>17226</v>
       </c>
       <c r="F55" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G55">
-        <v>21287</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4956</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B56">
         <v>2101077</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>3608</v>
+        <v>17227</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>21287</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B57">
         <v>2101077</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E57">
-        <v>5425</v>
+        <v>3608</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B58">
         <v>2101077</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E58">
+        <v>5425</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59">
+        <v>2101077</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59">
         <v>11936</v>
       </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59">
-        <v>2101081</v>
-      </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <v>1917</v>
-      </c>
       <c r="F59" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59">
-        <v>10602</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="B60">
         <v>2101081</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>15290</v>
+        <v>1917</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>6866.19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10602</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="B61">
         <v>2101081</v>
       </c>
       <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>15290</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>6866.19</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62">
+        <v>2101081</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>15294</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>1062.18</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63">
+        <v>2100945</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>1611</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>683496</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64">
+        <v>2100945</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>107051</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>233052</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65">
+        <v>2100945</v>
+      </c>
+      <c r="C65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>185143.01</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66">
+        <v>2101123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>8490</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>7762</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67">
+        <v>2101127</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>1714</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>75553</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68">
+        <v>2101029</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>7150</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>1860</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69">
+        <v>2101029</v>
+      </c>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>7988</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>11797</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70">
+        <v>2101139</v>
+      </c>
+      <c r="C70" t="s">
         <v>81</v>
       </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61">
-        <v>15294</v>
-      </c>
-      <c r="F61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61">
-        <v>1062.18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>15282</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>2364</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71">
+        <v>2101139</v>
+      </c>
+      <c r="C71" t="s">
         <v>82</v>
       </c>
-      <c r="B62">
-        <v>2101099</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>15284</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>14189</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72">
+        <v>2101139</v>
+      </c>
+      <c r="C72" t="s">
         <v>83</v>
       </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62">
-        <v>7912</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63">
-        <v>2101099</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>15286</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>29595</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73">
+        <v>2101035</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>16960</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>1845.48</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74">
+        <v>2101141</v>
+      </c>
+      <c r="C74" t="s">
         <v>84</v>
       </c>
-      <c r="D63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63">
-        <v>8856</v>
-      </c>
-      <c r="F63" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63">
-        <v>15052</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64">
-        <v>2101099</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="E74">
+        <v>15273</v>
+      </c>
+      <c r="G74">
+        <v>4045</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75">
+        <v>2101141</v>
+      </c>
+      <c r="C75" t="s">
         <v>85</v>
       </c>
-      <c r="D64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64">
-        <v>17686</v>
-      </c>
-      <c r="F64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64">
-        <v>11163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>15274</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>27061</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76">
+        <v>2101141</v>
+      </c>
+      <c r="C76" t="s">
         <v>86</v>
       </c>
-      <c r="B65">
-        <v>2101101</v>
-      </c>
-      <c r="C65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65">
-        <v>16521</v>
-      </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65">
-        <v>1677.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66">
-        <v>2101101</v>
-      </c>
-      <c r="C66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66">
-        <v>16913</v>
-      </c>
-      <c r="F66" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66">
-        <v>7079.3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67">
-        <v>2101101</v>
-      </c>
-      <c r="C67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67">
-        <v>17126</v>
-      </c>
-      <c r="F67" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67">
-        <v>21163.200000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>90</v>
-      </c>
-      <c r="B68">
-        <v>2101105</v>
-      </c>
-      <c r="C68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68">
-        <v>12218</v>
-      </c>
-      <c r="F68" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68">
-        <v>146833</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69">
-        <v>2101119</v>
-      </c>
-      <c r="C69" t="s">
-        <v>93</v>
-      </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69">
-        <v>15962</v>
-      </c>
-      <c r="F69" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69">
-        <v>35267.75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70">
-        <v>2101119</v>
-      </c>
-      <c r="C70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70">
-        <v>100134</v>
-      </c>
-      <c r="F70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70">
-        <v>13363.72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71">
-        <v>2101119</v>
-      </c>
-      <c r="C71" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71">
-        <v>107745</v>
-      </c>
-      <c r="F71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71">
-        <v>1394.36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>96</v>
-      </c>
-      <c r="B72">
-        <v>2101123</v>
-      </c>
-      <c r="C72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72">
-        <v>8490</v>
-      </c>
-      <c r="F72" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72">
-        <v>7762</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73">
-        <v>2101127</v>
-      </c>
-      <c r="C73" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73">
-        <v>1714</v>
-      </c>
-      <c r="F73" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73">
-        <v>75553</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74">
-        <v>2101139</v>
-      </c>
-      <c r="C74" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74">
-        <v>15282</v>
-      </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75">
-        <v>2101139</v>
-      </c>
-      <c r="C75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75">
-        <v>15284</v>
-      </c>
-      <c r="F75" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75">
-        <v>14189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>100</v>
-      </c>
-      <c r="B76">
-        <v>2101139</v>
-      </c>
-      <c r="C76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" t="s">
-        <v>5</v>
-      </c>
       <c r="E76">
-        <v>15286</v>
-      </c>
-      <c r="F76" t="s">
-        <v>6</v>
+        <v>15275</v>
       </c>
       <c r="G76">
-        <v>29595</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5581</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B77">
         <v>2101141</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E77">
-        <v>15273</v>
+        <v>15276</v>
       </c>
       <c r="G77">
-        <v>4045</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4271</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B78">
         <v>2101141</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>15274</v>
+        <v>15279</v>
       </c>
       <c r="F78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G78">
-        <v>27061</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3987</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B79">
         <v>2101141</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>89</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>15275</v>
+        <v>15280</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
       </c>
       <c r="G79">
-        <v>5581</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7982</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B80">
-        <v>2101141</v>
+        <v>2101047</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>15276</v>
+        <v>2896</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
       </c>
       <c r="G80">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5406.9</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B81">
-        <v>2101141</v>
+        <v>2101047</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>15279</v>
+        <v>17529</v>
       </c>
       <c r="F81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G81">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14613.69</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B82">
-        <v>2101141</v>
+        <v>2101047</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82">
-        <v>15280</v>
+        <v>106160</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G82">
-        <v>7982</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31862.27</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="B83">
         <v>2101145</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83">
         <v>5042</v>
       </c>
       <c r="F83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G83">
         <v>2893</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="B84">
         <v>2101145</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E84">
         <v>106063</v>
       </c>
       <c r="F84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G84">
         <v>11940</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B85">
         <v>2101147</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>106060</v>
       </c>
       <c r="F85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G85">
         <v>12239</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B86">
         <v>2101149</v>
       </c>
       <c r="C86" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E86">
         <v>3328</v>
       </c>
       <c r="F86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G86">
         <v>61762</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B87">
         <v>2101149</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E87">
         <v>3447</v>
       </c>
       <c r="F87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G87">
         <v>6661</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B88">
         <v>2101149</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E88">
         <v>4465</v>
       </c>
       <c r="F88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G88">
         <v>13245</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B89">
         <v>2101149</v>
       </c>
       <c r="C89" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E89">
         <v>4778</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G89">
         <v>2800</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B90">
         <v>2101149</v>
       </c>
       <c r="C90" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E90">
         <v>5910</v>
       </c>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G90">
         <v>10703</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B91">
         <v>2101149</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E91">
         <v>107189</v>
       </c>
       <c r="F91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G91">
         <v>2884</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G92">
-        <v>2232849.36</v>
+      <c r="H91" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>156</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>158</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>157</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A92" xr:uid="{DFFF8375-3BDB-004A-8564-E6E1A96902AB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H92">
+      <sortCondition ref="A1:A92"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/import/msw_in_region_disposal.xlsx
+++ b/import/msw_in_region_disposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Documents/BCWC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52FC1E1-61A5-104E-B952-CE15B0450DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385ECD53-AA03-2C44-B6F0-9ADAF2027A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8880" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{AFBB352B-97F1-4B47-BECF-2B0419D74A01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="158">
   <si>
     <t>Member</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Regional District</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>West Coast Landfill</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Likely Landfill</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Cochin Lanfill</t>
   </si>
   <si>
@@ -339,9 +333,6 @@
   </si>
   <si>
     <t>InRegionQuantity</t>
-  </si>
-  <si>
-    <t>InRegionScale</t>
   </si>
   <si>
     <t>SGC</t>
@@ -1418,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF8375-3BDB-004A-8564-E6E1A96902AB}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="267" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="267" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1429,36 +1420,33 @@
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="5" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1469,22 +1457,19 @@
       <c r="D2">
         <v>524</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>15256</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="F2">
-        <v>15256</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1492,22 +1477,19 @@
       <c r="D3">
         <v>5634</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>7267.5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1515,22 +1497,19 @@
       <c r="D4">
         <v>7912</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
+      <c r="E4">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1538,22 +1517,19 @@
       <c r="D5">
         <v>8856</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
         <v>15052</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1561,22 +1537,19 @@
       <c r="D6">
         <v>17686</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
+      <c r="E6">
         <v>11163</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1584,45 +1557,39 @@
       <c r="D7">
         <v>12659</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
+      <c r="E7">
         <v>180004</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
       </c>
       <c r="D8">
         <v>3132</v>
       </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8">
+      <c r="E8">
         <v>17595</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1630,22 +1597,19 @@
       <c r="D9">
         <v>4533</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
+      <c r="E9">
         <v>325</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1653,22 +1617,19 @@
       <c r="D10">
         <v>4535</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1676,22 +1637,19 @@
       <c r="D11">
         <v>4536</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <v>85</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -1699,22 +1657,19 @@
       <c r="D12">
         <v>4994</v>
       </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12">
+      <c r="E12">
         <v>7968</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -1722,22 +1677,19 @@
       <c r="D13">
         <v>5776</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
+      <c r="E13">
         <v>1200</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1745,22 +1697,19 @@
       <c r="D14">
         <v>6313</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14">
+      <c r="E14">
         <v>20</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -1768,22 +1717,19 @@
       <c r="D15">
         <v>6510</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15">
+      <c r="E15">
         <v>350</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -1791,22 +1737,19 @@
       <c r="D16">
         <v>6922</v>
       </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16">
+      <c r="E16">
         <v>25</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -1814,22 +1757,19 @@
       <c r="D17">
         <v>7200</v>
       </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17">
+      <c r="E17">
         <v>80</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -1837,22 +1777,19 @@
       <c r="D18">
         <v>7644</v>
       </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18">
+      <c r="E18">
         <v>90</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -1860,22 +1797,19 @@
       <c r="D19">
         <v>10953</v>
       </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <v>115</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -1883,22 +1817,19 @@
       <c r="D20">
         <v>11071</v>
       </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20">
+      <c r="E20">
         <v>225</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -1906,22 +1837,19 @@
       <c r="D21">
         <v>16556</v>
       </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21">
+      <c r="E21">
         <v>10693</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -1929,22 +1857,19 @@
       <c r="D22">
         <v>17920</v>
       </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22">
+      <c r="E22">
         <v>495</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -1952,22 +1877,19 @@
       <c r="D23">
         <v>103019</v>
       </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23">
+      <c r="E23">
         <v>2658</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -1975,80 +1897,68 @@
       <c r="D24">
         <v>4223</v>
       </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24">
+      <c r="E24">
         <v>1576</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>10611</v>
       </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>18186</v>
       </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -2056,22 +1966,19 @@
       <c r="D28">
         <v>16521</v>
       </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28">
+      <c r="E28">
         <v>1677.6</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -2079,22 +1986,19 @@
       <c r="D29">
         <v>16913</v>
       </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29">
+      <c r="E29">
         <v>7079.3</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -2102,45 +2006,39 @@
       <c r="D30">
         <v>17126</v>
       </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30">
+      <c r="E30">
         <v>21163.200000000001</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>12218</v>
       </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31">
+      <c r="E31">
         <v>146833</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -2148,22 +2046,19 @@
       <c r="D32">
         <v>514</v>
       </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32">
+      <c r="E32">
         <v>3218</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -2171,22 +2066,19 @@
       <c r="D33">
         <v>5479</v>
       </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33">
+      <c r="E33">
         <v>31232</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -2194,22 +2086,19 @@
       <c r="D34">
         <v>15821</v>
       </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34">
+      <c r="E34">
         <v>7414</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -2217,22 +2106,19 @@
       <c r="D35">
         <v>17006</v>
       </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35">
+      <c r="E35">
         <v>5331</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -2240,22 +2126,19 @@
       <c r="D36">
         <v>2401</v>
       </c>
-      <c r="E36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36">
+      <c r="E36">
         <v>2201</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F36" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -2263,19 +2146,16 @@
       <c r="D37">
         <v>3825</v>
       </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F37" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -2283,22 +2163,19 @@
       <c r="D38">
         <v>4278</v>
       </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38">
+      <c r="E38">
         <v>650</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F38" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -2306,22 +2183,19 @@
       <c r="D39">
         <v>5050</v>
       </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39">
+      <c r="E39">
         <v>61944</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F39" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -2329,22 +2203,19 @@
       <c r="D40">
         <v>7496</v>
       </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40">
+      <c r="E40">
         <v>493</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -2352,22 +2223,19 @@
       <c r="D41">
         <v>15962</v>
       </c>
-      <c r="E41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41">
+      <c r="E41">
         <v>35267.75</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F41" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -2375,22 +2243,19 @@
       <c r="D42">
         <v>100134</v>
       </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42">
+      <c r="E42">
         <v>13363.72</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F42" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -2398,22 +2263,19 @@
       <c r="D43">
         <v>107745</v>
       </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43">
+      <c r="E43">
         <v>1394.36</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F43" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -2421,22 +2283,19 @@
       <c r="D44">
         <v>1697</v>
       </c>
-      <c r="E44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44">
+      <c r="E44">
         <v>74416.7</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F44" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -2444,19 +2303,16 @@
       <c r="D45">
         <v>6424</v>
       </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F45" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -2464,56 +2320,50 @@
       <c r="D46">
         <v>100206</v>
       </c>
-      <c r="E46" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46">
+      <c r="E46">
         <v>539</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48">
         <v>101798</v>
       </c>
-      <c r="E48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48">
+      <c r="E48">
         <v>86882.58</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F48" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -2521,65 +2371,56 @@
       <c r="D49">
         <v>101804</v>
       </c>
-      <c r="E49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49">
+      <c r="E49">
         <v>383.44</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F49" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50">
         <v>105058</v>
       </c>
-      <c r="E50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50">
+      <c r="E50">
         <v>13875.49</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F50" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51">
+      <c r="E51">
         <v>-82000</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F51" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -2587,22 +2428,19 @@
       <c r="D52">
         <v>4612</v>
       </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52">
+      <c r="E52">
         <v>490</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F52" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -2610,22 +2448,19 @@
       <c r="D53">
         <v>5511</v>
       </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53">
+      <c r="E53">
         <v>226</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F53" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -2633,22 +2468,19 @@
       <c r="D54">
         <v>15681</v>
       </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54">
+      <c r="E54">
         <v>5095</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F54" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -2656,22 +2488,19 @@
       <c r="D55">
         <v>17226</v>
       </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55">
+      <c r="E55">
         <v>4956</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F55" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -2679,82 +2508,70 @@
       <c r="D56">
         <v>17227</v>
       </c>
-      <c r="E56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56">
+      <c r="E56">
         <v>21287</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F56" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57">
         <v>3608</v>
       </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F57" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D58">
         <v>5425</v>
       </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F58" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59">
         <v>11936</v>
       </c>
-      <c r="E59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -2762,22 +2579,19 @@
       <c r="D60">
         <v>1917</v>
       </c>
-      <c r="E60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60">
+      <c r="E60">
         <v>10602</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F60" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -2785,22 +2599,19 @@
       <c r="D61">
         <v>15290</v>
       </c>
-      <c r="E61" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61">
+      <c r="E61">
         <v>6866.19</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F61" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -2808,45 +2619,39 @@
       <c r="D62">
         <v>15294</v>
       </c>
-      <c r="E62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62">
+      <c r="E62">
         <v>1062.18</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F62" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63">
         <v>1611</v>
       </c>
-      <c r="E63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63">
+      <c r="E63">
         <v>683496</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F63" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
         <v>47</v>
-      </c>
-      <c r="B64" t="s">
-        <v>49</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -2854,43 +2659,37 @@
       <c r="D64">
         <v>107051</v>
       </c>
-      <c r="E64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64">
+      <c r="E64">
         <v>233052</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F64" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65">
+      <c r="E65">
         <v>185143.01</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F65" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -2898,22 +2697,19 @@
       <c r="D66">
         <v>8490</v>
       </c>
-      <c r="E66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66">
+      <c r="E66">
         <v>7762</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F66" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -2921,22 +2717,19 @@
       <c r="D67">
         <v>1714</v>
       </c>
-      <c r="E67" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67">
+      <c r="E67">
         <v>75553</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F67" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -2944,45 +2737,39 @@
       <c r="D68">
         <v>7150</v>
       </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68">
+      <c r="E68">
         <v>1860</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F68" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69">
         <v>7988</v>
       </c>
-      <c r="E69" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69">
+      <c r="E69">
         <v>11797</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F69" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -2990,22 +2777,19 @@
       <c r="D70">
         <v>15282</v>
       </c>
-      <c r="E70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70">
+      <c r="E70">
         <v>2364</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F70" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -3013,22 +2797,19 @@
       <c r="D71">
         <v>15284</v>
       </c>
-      <c r="E71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71">
+      <c r="E71">
         <v>14189</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F71" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -3036,62 +2817,56 @@
       <c r="D72">
         <v>15286</v>
       </c>
-      <c r="E72" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72">
+      <c r="E72">
         <v>29595</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F72" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D73">
         <v>16960</v>
       </c>
-      <c r="E73" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73">
+      <c r="E73">
         <v>1845.48</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F73" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D74">
         <v>15273</v>
       </c>
-      <c r="F74">
+      <c r="E74">
         <v>4045</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F74" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -3099,56 +2874,53 @@
       <c r="D75">
         <v>15274</v>
       </c>
-      <c r="E75" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75">
+      <c r="E75">
         <v>27061</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F75" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D76">
         <v>15275</v>
       </c>
-      <c r="F76">
+      <c r="E76">
         <v>5581</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F76" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D77">
         <v>15276</v>
       </c>
-      <c r="F77">
+      <c r="E77">
         <v>4271</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F77" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -3156,22 +2928,19 @@
       <c r="D78">
         <v>15279</v>
       </c>
-      <c r="E78" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78">
+      <c r="E78">
         <v>3987</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F78" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -3179,22 +2948,19 @@
       <c r="D79">
         <v>15280</v>
       </c>
-      <c r="E79" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79">
+      <c r="E79">
         <v>7982</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F79" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -3202,22 +2968,19 @@
       <c r="D80">
         <v>2896</v>
       </c>
-      <c r="E80" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80">
+      <c r="E80">
         <v>5406.9</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F80" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -3225,22 +2988,19 @@
       <c r="D81">
         <v>17529</v>
       </c>
-      <c r="E81" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81">
+      <c r="E81">
         <v>14613.69</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F81" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -3248,22 +3008,19 @@
       <c r="D82">
         <v>106160</v>
       </c>
-      <c r="E82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82">
+      <c r="E82">
         <v>31862.27</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F82" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -3271,45 +3028,39 @@
       <c r="D83">
         <v>5042</v>
       </c>
-      <c r="E83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83">
+      <c r="E83">
         <v>2893</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F83" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84">
         <v>106063</v>
       </c>
-      <c r="E84" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84">
+      <c r="E84">
         <v>11940</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F84" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -3317,45 +3068,39 @@
       <c r="D85">
         <v>106060</v>
       </c>
-      <c r="E85" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85">
+      <c r="E85">
         <v>12239</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F85" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86">
         <v>3328</v>
       </c>
-      <c r="E86" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86">
+      <c r="E86">
         <v>61762</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F86" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -3363,22 +3108,19 @@
       <c r="D87">
         <v>3447</v>
       </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87">
+      <c r="E87">
         <v>6661</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F87" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -3386,107 +3128,95 @@
       <c r="D88">
         <v>4465</v>
       </c>
-      <c r="E88" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88">
+      <c r="E88">
         <v>13245</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F88" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89">
         <v>4778</v>
       </c>
-      <c r="E89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89">
+      <c r="E89">
         <v>2800</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F89" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90">
         <v>5910</v>
       </c>
-      <c r="E90" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90">
+      <c r="E90">
         <v>10703</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F90" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D91">
         <v>107189</v>
       </c>
-      <c r="E91" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91">
+      <c r="E91">
         <v>2884</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F91" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>152</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>157</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>160</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/import/msw_in_region_disposal.xlsx
+++ b/import/msw_in_region_disposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Documents/BCWC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385ECD53-AA03-2C44-B6F0-9ADAF2027A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D78FDC7-6BC2-DD4F-9573-DBA266BA5486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8880" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{AFBB352B-97F1-4B47-BECF-2B0419D74A01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="157">
   <si>
     <t>Member</t>
   </si>
@@ -332,9 +332,6 @@
     <t>AuthorizationNumber</t>
   </si>
   <si>
-    <t>InRegionQuantity</t>
-  </si>
-  <si>
     <t>SGC</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t>45000</t>
   </si>
   <si>
-    <t>Columbia Shuswap</t>
-  </si>
-  <si>
     <t>39000</t>
   </si>
   <si>
@@ -473,9 +467,6 @@
     <t>29000</t>
   </si>
   <si>
-    <t>Thompson Nicola</t>
-  </si>
-  <si>
     <t>33000</t>
   </si>
   <si>
@@ -510,13 +501,19 @@
   </si>
   <si>
     <t>qathet</t>
+  </si>
+  <si>
+    <t>Columbia-Shuswap</t>
+  </si>
+  <si>
+    <t>Thompson-Nicola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -668,13 +665,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -1026,14 +1016,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1409,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF8375-3BDB-004A-8564-E6E1A96902AB}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="267" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="267" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1421,10 +1410,9 @@
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1437,16 +1425,13 @@
       <c r="D1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1457,16 +1442,13 @@
       <c r="D2">
         <v>524</v>
       </c>
-      <c r="E2">
-        <v>15256</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1477,16 +1459,13 @@
       <c r="D3">
         <v>5634</v>
       </c>
-      <c r="E3">
-        <v>7267.5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1497,16 +1476,13 @@
       <c r="D4">
         <v>7912</v>
       </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -1517,16 +1493,13 @@
       <c r="D5">
         <v>8856</v>
       </c>
-      <c r="E5">
-        <v>15052</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -1537,16 +1510,13 @@
       <c r="D6">
         <v>17686</v>
       </c>
-      <c r="E6">
-        <v>11163</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1557,16 +1527,13 @@
       <c r="D7">
         <v>12659</v>
       </c>
-      <c r="E7">
-        <v>180004</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1577,16 +1544,13 @@
       <c r="D8">
         <v>3132</v>
       </c>
-      <c r="E8">
-        <v>17595</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1597,16 +1561,13 @@
       <c r="D9">
         <v>4533</v>
       </c>
-      <c r="E9">
-        <v>325</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1617,16 +1578,13 @@
       <c r="D10">
         <v>4535</v>
       </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1637,16 +1595,13 @@
       <c r="D11">
         <v>4536</v>
       </c>
-      <c r="E11">
-        <v>85</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1657,16 +1612,13 @@
       <c r="D12">
         <v>4994</v>
       </c>
-      <c r="E12">
-        <v>7968</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1677,16 +1629,13 @@
       <c r="D13">
         <v>5776</v>
       </c>
-      <c r="E13">
-        <v>1200</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1697,16 +1646,13 @@
       <c r="D14">
         <v>6313</v>
       </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1717,16 +1663,13 @@
       <c r="D15">
         <v>6510</v>
       </c>
-      <c r="E15">
-        <v>350</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1737,16 +1680,13 @@
       <c r="D16">
         <v>6922</v>
       </c>
-      <c r="E16">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1757,16 +1697,13 @@
       <c r="D17">
         <v>7200</v>
       </c>
-      <c r="E17">
-        <v>80</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1777,16 +1714,13 @@
       <c r="D18">
         <v>7644</v>
       </c>
-      <c r="E18">
-        <v>90</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1797,16 +1731,13 @@
       <c r="D19">
         <v>10953</v>
       </c>
-      <c r="E19">
-        <v>115</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1817,16 +1748,13 @@
       <c r="D20">
         <v>11071</v>
       </c>
-      <c r="E20">
-        <v>225</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1837,16 +1765,13 @@
       <c r="D21">
         <v>16556</v>
       </c>
-      <c r="E21">
-        <v>10693</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1857,16 +1782,13 @@
       <c r="D22">
         <v>17920</v>
       </c>
-      <c r="E22">
-        <v>495</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1877,16 +1799,13 @@
       <c r="D23">
         <v>103019</v>
       </c>
-      <c r="E23">
-        <v>2658</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1897,16 +1816,13 @@
       <c r="D24">
         <v>4223</v>
       </c>
-      <c r="E24">
-        <v>1576</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1917,13 +1833,13 @@
       <c r="D25">
         <v>10611</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1934,13 +1850,13 @@
       <c r="D26">
         <v>18186</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>27</v>
@@ -1949,13 +1865,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="F27" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
@@ -1966,16 +1882,13 @@
       <c r="D28">
         <v>16521</v>
       </c>
-      <c r="E28">
-        <v>1677.6</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -1986,16 +1899,13 @@
       <c r="D29">
         <v>16913</v>
       </c>
-      <c r="E29">
-        <v>7079.3</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
@@ -2006,16 +1916,13 @@
       <c r="D30">
         <v>17126</v>
       </c>
-      <c r="E30">
-        <v>21163.200000000001</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>130</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
@@ -2026,16 +1933,13 @@
       <c r="D31">
         <v>12218</v>
       </c>
-      <c r="E31">
-        <v>146833</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -2046,16 +1950,13 @@
       <c r="D32">
         <v>514</v>
       </c>
-      <c r="E32">
-        <v>3218</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -2066,16 +1967,13 @@
       <c r="D33">
         <v>5479</v>
       </c>
-      <c r="E33">
-        <v>31232</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -2086,16 +1984,13 @@
       <c r="D34">
         <v>15821</v>
       </c>
-      <c r="E34">
-        <v>7414</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -2106,16 +2001,13 @@
       <c r="D35">
         <v>17006</v>
       </c>
-      <c r="E35">
-        <v>5331</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2126,16 +2018,13 @@
       <c r="D36">
         <v>2401</v>
       </c>
-      <c r="E36">
-        <v>2201</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -2146,13 +2035,13 @@
       <c r="D37">
         <v>3825</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -2163,16 +2052,13 @@
       <c r="D38">
         <v>4278</v>
       </c>
-      <c r="E38">
-        <v>650</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -2183,16 +2069,13 @@
       <c r="D39">
         <v>5050</v>
       </c>
-      <c r="E39">
-        <v>61944</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
@@ -2203,16 +2086,13 @@
       <c r="D40">
         <v>7496</v>
       </c>
-      <c r="E40">
-        <v>493</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
@@ -2223,16 +2103,13 @@
       <c r="D41">
         <v>15962</v>
       </c>
-      <c r="E41">
-        <v>35267.75</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E41" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
@@ -2243,16 +2120,13 @@
       <c r="D42">
         <v>100134</v>
       </c>
-      <c r="E42">
-        <v>13363.72</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
@@ -2263,16 +2137,13 @@
       <c r="D43">
         <v>107745</v>
       </c>
-      <c r="E43">
-        <v>1394.36</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E43" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -2283,16 +2154,13 @@
       <c r="D44">
         <v>1697</v>
       </c>
-      <c r="E44">
-        <v>74416.7</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E44" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
@@ -2303,13 +2171,13 @@
       <c r="D45">
         <v>6424</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -2320,27 +2188,24 @@
       <c r="D46">
         <v>100206</v>
       </c>
-      <c r="E46">
-        <v>539</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E46" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E47" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
         <v>41</v>
@@ -2351,16 +2216,13 @@
       <c r="D48">
         <v>101798</v>
       </c>
-      <c r="E48">
-        <v>86882.58</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -2371,16 +2233,13 @@
       <c r="D49">
         <v>101804</v>
       </c>
-      <c r="E49">
-        <v>383.44</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
@@ -2391,16 +2250,13 @@
       <c r="D50">
         <v>105058</v>
       </c>
-      <c r="E50">
-        <v>13875.49</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E50" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>44</v>
@@ -2408,16 +2264,13 @@
       <c r="C51" t="s">
         <v>3</v>
       </c>
-      <c r="E51">
-        <v>-82000</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E51" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
@@ -2428,16 +2281,13 @@
       <c r="D52">
         <v>4612</v>
       </c>
-      <c r="E52">
-        <v>490</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
@@ -2448,16 +2298,13 @@
       <c r="D53">
         <v>5511</v>
       </c>
-      <c r="E53">
-        <v>226</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E53" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
@@ -2468,16 +2315,13 @@
       <c r="D54">
         <v>15681</v>
       </c>
-      <c r="E54">
-        <v>5095</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E54" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
         <v>58</v>
@@ -2488,16 +2332,13 @@
       <c r="D55">
         <v>17226</v>
       </c>
-      <c r="E55">
-        <v>4956</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E55" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -2508,16 +2349,13 @@
       <c r="D56">
         <v>17227</v>
       </c>
-      <c r="E56">
-        <v>21287</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E56" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -2528,13 +2366,13 @@
       <c r="D57">
         <v>3608</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E57" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
@@ -2545,13 +2383,13 @@
       <c r="D58">
         <v>5425</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E58" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -2562,13 +2400,13 @@
       <c r="D59">
         <v>11936</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E59" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
@@ -2579,16 +2417,13 @@
       <c r="D60">
         <v>1917</v>
       </c>
-      <c r="E60">
-        <v>10602</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E60" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -2599,16 +2434,13 @@
       <c r="D61">
         <v>15290</v>
       </c>
-      <c r="E61">
-        <v>6866.19</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E61" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
@@ -2619,14 +2451,11 @@
       <c r="D62">
         <v>15294</v>
       </c>
-      <c r="E62">
-        <v>1062.18</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E62" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -2639,14 +2468,11 @@
       <c r="D63">
         <v>1611</v>
       </c>
-      <c r="E63">
-        <v>683496</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E63" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -2659,14 +2485,11 @@
       <c r="D64">
         <v>107051</v>
       </c>
-      <c r="E64">
-        <v>233052</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E64" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>45</v>
       </c>
@@ -2677,16 +2500,13 @@
         <v>26</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65">
-        <v>185143.01</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E65" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
         <v>76</v>
@@ -2697,16 +2517,13 @@
       <c r="D66">
         <v>8490</v>
       </c>
-      <c r="E66">
-        <v>7762</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>135</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -2717,16 +2534,13 @@
       <c r="D67">
         <v>1714</v>
       </c>
-      <c r="E67">
-        <v>75553</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E67" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
         <v>49</v>
@@ -2737,16 +2551,13 @@
       <c r="D68">
         <v>7150</v>
       </c>
-      <c r="E68">
-        <v>1860</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E68" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
         <v>50</v>
@@ -2757,16 +2568,13 @@
       <c r="D69">
         <v>7988</v>
       </c>
-      <c r="E69">
-        <v>11797</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E69" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
         <v>78</v>
@@ -2777,16 +2585,13 @@
       <c r="D70">
         <v>15282</v>
       </c>
-      <c r="E70">
-        <v>2364</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E70" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s">
         <v>79</v>
@@ -2797,16 +2602,13 @@
       <c r="D71">
         <v>15284</v>
       </c>
-      <c r="E71">
-        <v>14189</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E71" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
         <v>80</v>
@@ -2817,16 +2619,13 @@
       <c r="D72">
         <v>15286</v>
       </c>
-      <c r="E72">
-        <v>29595</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E72" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
         <v>51</v>
@@ -2837,16 +2636,13 @@
       <c r="D73">
         <v>16960</v>
       </c>
-      <c r="E73">
-        <v>1845.48</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E73" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
@@ -2854,16 +2650,13 @@
       <c r="D74">
         <v>15273</v>
       </c>
-      <c r="E74">
-        <v>4045</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E74" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
@@ -2874,16 +2667,13 @@
       <c r="D75">
         <v>15274</v>
       </c>
-      <c r="E75">
-        <v>27061</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E75" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
         <v>83</v>
@@ -2891,16 +2681,13 @@
       <c r="D76">
         <v>15275</v>
       </c>
-      <c r="E76">
-        <v>5581</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E76" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
@@ -2908,16 +2695,13 @@
       <c r="D77">
         <v>15276</v>
       </c>
-      <c r="E77">
-        <v>4271</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E77" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
@@ -2928,16 +2712,13 @@
       <c r="D78">
         <v>15279</v>
       </c>
-      <c r="E78">
-        <v>3987</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E78" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
         <v>86</v>
@@ -2948,16 +2729,13 @@
       <c r="D79">
         <v>15280</v>
       </c>
-      <c r="E79">
-        <v>7982</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E79" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
         <v>52</v>
@@ -2968,16 +2746,13 @@
       <c r="D80">
         <v>2896</v>
       </c>
-      <c r="E80">
-        <v>5406.9</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E80" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
         <v>53</v>
@@ -2988,16 +2763,13 @@
       <c r="D81">
         <v>17529</v>
       </c>
-      <c r="E81">
-        <v>14613.69</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E81" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
         <v>54</v>
@@ -3008,16 +2780,13 @@
       <c r="D82">
         <v>106160</v>
       </c>
-      <c r="E82">
-        <v>31862.27</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E82" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
@@ -3028,16 +2797,13 @@
       <c r="D83">
         <v>5042</v>
       </c>
-      <c r="E83">
-        <v>2893</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E83" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
@@ -3048,16 +2814,13 @@
       <c r="D84">
         <v>106063</v>
       </c>
-      <c r="E84">
-        <v>11940</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E84" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
@@ -3068,16 +2831,13 @@
       <c r="D85">
         <v>106060</v>
       </c>
-      <c r="E85">
-        <v>12239</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E85" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
@@ -3088,16 +2848,13 @@
       <c r="D86">
         <v>3328</v>
       </c>
-      <c r="E86">
-        <v>61762</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E86" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
@@ -3108,16 +2865,13 @@
       <c r="D87">
         <v>3447</v>
       </c>
-      <c r="E87">
-        <v>6661</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E87" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
@@ -3128,16 +2882,13 @@
       <c r="D88">
         <v>4465</v>
       </c>
-      <c r="E88">
-        <v>13245</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E88" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
@@ -3148,16 +2899,13 @@
       <c r="D89">
         <v>4778</v>
       </c>
-      <c r="E89">
-        <v>2800</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E89" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
@@ -3168,16 +2916,13 @@
       <c r="D90">
         <v>5910</v>
       </c>
-      <c r="E90">
-        <v>10703</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E90" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
@@ -3188,35 +2933,32 @@
       <c r="D91">
         <v>107189</v>
       </c>
-      <c r="E91">
-        <v>2884</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E91" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>157</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/import/msw_in_region_disposal.xlsx
+++ b/import/msw_in_region_disposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Documents/BCWC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D78FDC7-6BC2-DD4F-9573-DBA266BA5486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A68868-46EB-BD43-93B7-17663510F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8880" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{AFBB352B-97F1-4B47-BECF-2B0419D74A01}"/>
   </bookViews>
@@ -395,9 +395,6 @@
     <t>55000</t>
   </si>
   <si>
-    <t>Kitimat Stikine</t>
-  </si>
-  <si>
     <t>49000</t>
   </si>
   <si>
@@ -507,6 +504,9 @@
   </si>
   <si>
     <t>Thompson-Nicola</t>
+  </si>
+  <si>
+    <t>Kitimat-Stikine</t>
   </si>
 </sst>
 </file>
@@ -1400,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF8375-3BDB-004A-8564-E6E1A96902AB}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="267" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="267" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1477,12 +1477,12 @@
         <v>7912</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -1494,12 +1494,12 @@
         <v>8856</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -1511,7 +1511,7 @@
         <v>17686</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1533,7 +1533,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1545,12 +1545,12 @@
         <v>3132</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1562,12 +1562,12 @@
         <v>4533</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1579,12 +1579,12 @@
         <v>4535</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1596,12 +1596,12 @@
         <v>4536</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1613,12 +1613,12 @@
         <v>4994</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1630,12 +1630,12 @@
         <v>5776</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1647,12 +1647,12 @@
         <v>6313</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1664,12 +1664,12 @@
         <v>6510</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1681,12 +1681,12 @@
         <v>6922</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1698,12 +1698,12 @@
         <v>7200</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1715,12 +1715,12 @@
         <v>7644</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1732,12 +1732,12 @@
         <v>10953</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1749,12 +1749,12 @@
         <v>11071</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1766,12 +1766,12 @@
         <v>16556</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1783,12 +1783,12 @@
         <v>17920</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1800,7 +1800,7 @@
         <v>103019</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
@@ -1883,12 +1883,12 @@
         <v>16521</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -1900,12 +1900,12 @@
         <v>16913</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
@@ -1917,12 +1917,12 @@
         <v>17126</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
@@ -1934,12 +1934,12 @@
         <v>12218</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
@@ -2104,12 +2104,12 @@
         <v>15962</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
@@ -2121,12 +2121,12 @@
         <v>100134</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
@@ -2138,12 +2138,12 @@
         <v>107745</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>40</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
@@ -2282,12 +2282,12 @@
         <v>4612</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
@@ -2299,12 +2299,12 @@
         <v>5511</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
@@ -2316,12 +2316,12 @@
         <v>15681</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
         <v>58</v>
@@ -2333,12 +2333,12 @@
         <v>17226</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -2350,12 +2350,12 @@
         <v>17227</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -2367,12 +2367,12 @@
         <v>3608</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
@@ -2384,12 +2384,12 @@
         <v>5425</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -2401,12 +2401,12 @@
         <v>11936</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
@@ -2418,12 +2418,12 @@
         <v>1917</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -2435,12 +2435,12 @@
         <v>15290</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
@@ -2452,7 +2452,7 @@
         <v>15294</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2506,7 +2506,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
         <v>76</v>
@@ -2518,12 +2518,12 @@
         <v>8490</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -2535,7 +2535,7 @@
         <v>1714</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2574,7 +2574,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
         <v>78</v>
@@ -2586,12 +2586,12 @@
         <v>15282</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
         <v>79</v>
@@ -2603,12 +2603,12 @@
         <v>15284</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
         <v>80</v>
@@ -2620,12 +2620,12 @@
         <v>15286</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
         <v>51</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
@@ -2651,12 +2651,12 @@
         <v>15273</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
@@ -2668,12 +2668,12 @@
         <v>15274</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
         <v>83</v>
@@ -2682,12 +2682,12 @@
         <v>15275</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
@@ -2696,12 +2696,12 @@
         <v>15276</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
@@ -2713,12 +2713,12 @@
         <v>15279</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
         <v>86</v>
@@ -2730,7 +2730,7 @@
         <v>15280</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2786,7 +2786,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
@@ -2798,12 +2798,12 @@
         <v>5042</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
@@ -2815,12 +2815,12 @@
         <v>106063</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
@@ -2832,12 +2832,12 @@
         <v>106060</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
@@ -2849,12 +2849,12 @@
         <v>3328</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
@@ -2866,12 +2866,12 @@
         <v>3447</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
@@ -2883,12 +2883,12 @@
         <v>4465</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
@@ -2900,12 +2900,12 @@
         <v>4778</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
@@ -2917,12 +2917,12 @@
         <v>5910</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
@@ -2934,31 +2934,31 @@
         <v>107189</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/import/msw_in_region_disposal.xlsx
+++ b/import/msw_in_region_disposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Documents/BCWC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A68868-46EB-BD43-93B7-17663510F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E5C5F9-ED2D-C34D-90B2-B72245E90206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8880" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{AFBB352B-97F1-4B47-BECF-2B0419D74A01}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="msw_in_region_disposal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">msw_in_region_disposal!$A$1:$A$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">msw_in_region_disposal!$A$1:$A$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="155">
   <si>
     <t>Member</t>
   </si>
@@ -485,13 +485,7 @@
     <t>Cowichan Valley</t>
   </si>
   <si>
-    <t>Stikine</t>
-  </si>
-  <si>
     <t>27000</t>
-  </si>
-  <si>
-    <t>57000</t>
   </si>
   <si>
     <t>19000</t>
@@ -1398,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF8375-3BDB-004A-8564-E6E1A96902AB}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="267" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="267" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1939,7 +1933,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -1956,7 +1950,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -1973,7 +1967,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -1990,7 +1984,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -2270,7 +2264,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
@@ -2287,7 +2281,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
@@ -2304,7 +2298,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
@@ -2321,7 +2315,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
         <v>58</v>
@@ -2338,7 +2332,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -2355,7 +2349,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -2372,7 +2366,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
@@ -2389,7 +2383,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -2837,7 +2831,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
@@ -2854,7 +2848,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
@@ -2871,7 +2865,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
@@ -2888,7 +2882,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
@@ -2905,7 +2899,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
@@ -2922,7 +2916,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
@@ -2942,27 +2936,19 @@
         <v>148</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>151</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A94" xr:uid="{DFFF8375-3BDB-004A-8564-E6E1A96902AB}">
+  <autoFilter ref="A1:A93" xr:uid="{DFFF8375-3BDB-004A-8564-E6E1A96902AB}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H92">
       <sortCondition ref="A1:A92"/>
     </sortState>
